--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:28:42+00:00</t>
+    <t>2024-03-21T08:38:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:30+00:00</t>
+    <t>2024-03-21T08:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:54+00:00</t>
+    <t>2024-03-22T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:10:55+00:00</t>
+    <t>2024-03-22T13:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:32:14+00:00</t>
+    <t>2024-04-22T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,18 +109,6 @@
   </si>
   <si>
     <t>vital-signs</t>
-  </si>
-  <si>
-    <t>laboratory</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>Exam</t>
   </si>
   <si>
     <t>activity</t>
@@ -402,7 +390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,31 +435,15 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:23:40+00:00</t>
+    <t>2024-04-22T14:23:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:23:17+00:00</t>
+    <t>2024-04-25T08:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T08:29:58+00:00</t>
+    <t>2024-05-06T08:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:47:22+00:00</t>
+    <t>2024-06-05T15:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T15:37:27+00:00</t>
+    <t>2024-06-06T09:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T09:48:48+00:00</t>
+    <t>2024-06-17T15:37:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:37:46+00:00</t>
+    <t>2024-06-17T15:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:38:51+00:00</t>
+    <t>2024-06-17T15:39:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:39:30+00:00</t>
+    <t>2024-06-18T07:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:51:04+00:00</t>
+    <t>2024-09-23T10:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T10:26:57+00:00</t>
+    <t>2024-10-10T08:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T08:49:37+00:00</t>
+    <t>2024-10-10T08:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-03T07:57:06+00:00</t>
+    <t>2025-12-03T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:11+00:00</t>
+    <t>2025-12-03T10:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:15+00:00</t>
+    <t>2025-12-03T10:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-TLSVCategory.xlsx
+++ b/main/ig/ValueSet-TLSVCategory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:47+00:00</t>
+    <t>2025-12-03T11:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
